--- a/biology/Origine et évolution du vivant/Orientation_bibliographique_sur_l'origine_et_l'évolution_du_vivant/Orientation_bibliographique_sur_l'origine_et_l'évolution_du_vivant.xlsx
+++ b/biology/Origine et évolution du vivant/Orientation_bibliographique_sur_l'origine_et_l'évolution_du_vivant/Orientation_bibliographique_sur_l'origine_et_l'évolution_du_vivant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orientation_bibliographique_sur_l%27origine_et_l%27%C3%A9volution_du_vivant</t>
+          <t>Orientation_bibliographique_sur_l'origine_et_l'évolution_du_vivant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste non-exhaustive de références relatives à l'origine via une liste d'ouvrages, de publications ou de sites Web reconnus par la communauté scientifique comme incontournables ou majeurs, qu'ils soient généraux ou plus ciblés. Cet article présente, pour chaque domaine, les grandes lignes historiques de la littérature et cite les auteurs ayant le plus de notoriété.
 REFERENCE :         Référence scientifique majeure     -        Vulgarisation particulièrement excellente 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orientation_bibliographique_sur_l%27origine_et_l%27%C3%A9volution_du_vivant</t>
+          <t>Orientation_bibliographique_sur_l'origine_et_l'évolution_du_vivant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
